--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Il1r1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>84.9998358242257</v>
+        <v>0.4115716666666667</v>
       </c>
       <c r="H2">
-        <v>84.9998358242257</v>
+        <v>1.234715</v>
       </c>
       <c r="I2">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="J2">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.602066569673</v>
+        <v>17.79587766666667</v>
       </c>
       <c r="N2">
-        <v>17.602066569673</v>
+        <v>53.38763299999999</v>
       </c>
       <c r="O2">
-        <v>0.1813016277475595</v>
+        <v>0.1793479316144739</v>
       </c>
       <c r="P2">
-        <v>0.1813016277475595</v>
+        <v>0.179347931614474</v>
       </c>
       <c r="Q2">
-        <v>1496.172768589297</v>
+        <v>7.324279031066111</v>
       </c>
       <c r="R2">
-        <v>1496.172768589297</v>
+        <v>65.91851127959499</v>
       </c>
       <c r="S2">
-        <v>0.08655610205281085</v>
+        <v>0.0003784532277518859</v>
       </c>
       <c r="T2">
-        <v>0.08655610205281085</v>
+        <v>0.000378453227751886</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>84.9998358242257</v>
+        <v>0.4115716666666667</v>
       </c>
       <c r="H3">
-        <v>84.9998358242257</v>
+        <v>1.234715</v>
       </c>
       <c r="I3">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="J3">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>71.1701162231372</v>
+        <v>72.39518466666667</v>
       </c>
       <c r="N3">
-        <v>71.1701162231372</v>
+        <v>217.185554</v>
       </c>
       <c r="O3">
-        <v>0.7330535802238745</v>
+        <v>0.7296030503252249</v>
       </c>
       <c r="P3">
-        <v>0.7330535802238745</v>
+        <v>0.7296030503252251</v>
       </c>
       <c r="Q3">
-        <v>6049.448194557724</v>
+        <v>29.79580681190111</v>
       </c>
       <c r="R3">
-        <v>6049.448194557724</v>
+        <v>268.16226130711</v>
       </c>
       <c r="S3">
-        <v>0.3499707161393103</v>
+        <v>0.001539580785167635</v>
       </c>
       <c r="T3">
-        <v>0.3499707161393103</v>
+        <v>0.001539580785167635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>84.9998358242257</v>
+        <v>0.4115716666666667</v>
       </c>
       <c r="H4">
-        <v>84.9998358242257</v>
+        <v>1.234715</v>
       </c>
       <c r="I4">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="J4">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.253874954159661</v>
+        <v>0.257112</v>
       </c>
       <c r="N4">
-        <v>0.253874954159661</v>
+        <v>0.771336</v>
       </c>
       <c r="O4">
-        <v>0.002614916961670067</v>
+        <v>0.00259119028895291</v>
       </c>
       <c r="P4">
-        <v>0.002614916961670067</v>
+        <v>0.00259119028895291</v>
       </c>
       <c r="Q4">
-        <v>21.57932942345401</v>
+        <v>0.10582001436</v>
       </c>
       <c r="R4">
-        <v>21.57932942345401</v>
+        <v>0.95238012924</v>
       </c>
       <c r="S4">
-        <v>0.001248400371281207</v>
+        <v>5.467831826918206E-06</v>
       </c>
       <c r="T4">
-        <v>0.001248400371281207</v>
+        <v>5.467831826918207E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>84.9998358242257</v>
+        <v>0.4115716666666667</v>
       </c>
       <c r="H5">
-        <v>84.9998358242257</v>
+        <v>1.234715</v>
       </c>
       <c r="I5">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="J5">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.31455437288889</v>
+        <v>0.4631083333333333</v>
       </c>
       <c r="N5">
-        <v>0.31455437288889</v>
+        <v>1.389325</v>
       </c>
       <c r="O5">
-        <v>0.003239916153829658</v>
+        <v>0.004667233797203165</v>
       </c>
       <c r="P5">
-        <v>0.003239916153829658</v>
+        <v>0.004667233797203166</v>
       </c>
       <c r="Q5">
-        <v>26.73707005334792</v>
+        <v>0.1906022685972222</v>
       </c>
       <c r="R5">
-        <v>26.73707005334792</v>
+        <v>1.715420417375</v>
       </c>
       <c r="S5">
-        <v>0.001546784310419437</v>
+        <v>9.848620384544656E-06</v>
       </c>
       <c r="T5">
-        <v>0.001546784310419437</v>
+        <v>9.848620384544656E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>84.9998358242257</v>
+        <v>0.4115716666666667</v>
       </c>
       <c r="H6">
-        <v>84.9998358242257</v>
+        <v>1.234715</v>
       </c>
       <c r="I6">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="J6">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.74658333644318</v>
+        <v>8.314158666666666</v>
       </c>
       <c r="N6">
-        <v>7.74658333644318</v>
+        <v>24.942476</v>
       </c>
       <c r="O6">
-        <v>0.07978995891306642</v>
+        <v>0.08379059397414486</v>
       </c>
       <c r="P6">
-        <v>0.07978995891306642</v>
+        <v>0.08379059397414489</v>
       </c>
       <c r="Q6">
-        <v>658.4583117963529</v>
+        <v>3.421872139371111</v>
       </c>
       <c r="R6">
-        <v>658.4583117963529</v>
+        <v>30.79684925434</v>
       </c>
       <c r="S6">
-        <v>0.03809291682744933</v>
+        <v>0.0001768117449658041</v>
       </c>
       <c r="T6">
-        <v>0.03809291682744933</v>
+        <v>0.0001768117449658042</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>93.0420148104632</v>
+        <v>90.57905466666666</v>
       </c>
       <c r="H7">
-        <v>93.0420148104632</v>
+        <v>271.737164</v>
       </c>
       <c r="I7">
-        <v>0.522585080298729</v>
+        <v>0.4644063565694702</v>
       </c>
       <c r="J7">
-        <v>0.522585080298729</v>
+        <v>0.4644063565694702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.602066569673</v>
+        <v>17.79587766666667</v>
       </c>
       <c r="N7">
-        <v>17.602066569673</v>
+        <v>53.38763299999999</v>
       </c>
       <c r="O7">
-        <v>0.1813016277475595</v>
+        <v>0.1793479316144739</v>
       </c>
       <c r="P7">
-        <v>0.1813016277475595</v>
+        <v>0.179347931614474</v>
       </c>
       <c r="Q7">
-        <v>1637.731738470274</v>
+        <v>1611.933776010312</v>
       </c>
       <c r="R7">
-        <v>1637.731738470274</v>
+        <v>14507.40398409281</v>
       </c>
       <c r="S7">
-        <v>0.09474552569474864</v>
+        <v>0.08329031947934833</v>
       </c>
       <c r="T7">
-        <v>0.09474552569474864</v>
+        <v>0.08329031947934835</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>93.0420148104632</v>
+        <v>90.57905466666666</v>
       </c>
       <c r="H8">
-        <v>93.0420148104632</v>
+        <v>271.737164</v>
       </c>
       <c r="I8">
-        <v>0.522585080298729</v>
+        <v>0.4644063565694702</v>
       </c>
       <c r="J8">
-        <v>0.522585080298729</v>
+        <v>0.4644063565694702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>71.1701162231372</v>
+        <v>72.39518466666667</v>
       </c>
       <c r="N8">
-        <v>71.1701162231372</v>
+        <v>217.185554</v>
       </c>
       <c r="O8">
-        <v>0.7330535802238745</v>
+        <v>0.7296030503252249</v>
       </c>
       <c r="P8">
-        <v>0.7330535802238745</v>
+        <v>0.7296030503252251</v>
       </c>
       <c r="Q8">
-        <v>6621.811007695519</v>
+        <v>6557.487389525428</v>
       </c>
       <c r="R8">
-        <v>6621.811007695519</v>
+        <v>59017.38650572886</v>
       </c>
       <c r="S8">
-        <v>0.3830828640845642</v>
+        <v>0.3388322943435095</v>
       </c>
       <c r="T8">
-        <v>0.3830828640845642</v>
+        <v>0.3388322943435096</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>93.0420148104632</v>
+        <v>90.57905466666666</v>
       </c>
       <c r="H9">
-        <v>93.0420148104632</v>
+        <v>271.737164</v>
       </c>
       <c r="I9">
-        <v>0.522585080298729</v>
+        <v>0.4644063565694702</v>
       </c>
       <c r="J9">
-        <v>0.522585080298729</v>
+        <v>0.4644063565694702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.253874954159661</v>
+        <v>0.257112</v>
       </c>
       <c r="N9">
-        <v>0.253874954159661</v>
+        <v>0.771336</v>
       </c>
       <c r="O9">
-        <v>0.002614916961670067</v>
+        <v>0.00259119028895291</v>
       </c>
       <c r="P9">
-        <v>0.002614916961670067</v>
+        <v>0.00259119028895291</v>
       </c>
       <c r="Q9">
-        <v>23.62103724492884</v>
+        <v>23.288961903456</v>
       </c>
       <c r="R9">
-        <v>23.62103724492884</v>
+        <v>209.600657131104</v>
       </c>
       <c r="S9">
-        <v>0.00136651659038886</v>
+        <v>0.001203365241270813</v>
       </c>
       <c r="T9">
-        <v>0.00136651659038886</v>
+        <v>0.001203365241270814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.0420148104632</v>
+        <v>90.57905466666666</v>
       </c>
       <c r="H10">
-        <v>93.0420148104632</v>
+        <v>271.737164</v>
       </c>
       <c r="I10">
-        <v>0.522585080298729</v>
+        <v>0.4644063565694702</v>
       </c>
       <c r="J10">
-        <v>0.522585080298729</v>
+        <v>0.4644063565694702</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.31455437288889</v>
+        <v>0.4631083333333333</v>
       </c>
       <c r="N10">
-        <v>0.31455437288889</v>
+        <v>1.389325</v>
       </c>
       <c r="O10">
-        <v>0.003239916153829658</v>
+        <v>0.004667233797203165</v>
       </c>
       <c r="P10">
-        <v>0.003239916153829658</v>
+        <v>0.004667233797203166</v>
       </c>
       <c r="Q10">
-        <v>29.26677262102407</v>
+        <v>41.94791504158889</v>
       </c>
       <c r="R10">
-        <v>29.26677262102407</v>
+        <v>377.5312353743</v>
       </c>
       <c r="S10">
-        <v>0.001693131843410221</v>
+        <v>0.002167493043017015</v>
       </c>
       <c r="T10">
-        <v>0.001693131843410221</v>
+        <v>0.002167493043017016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.0420148104632</v>
+        <v>90.57905466666666</v>
       </c>
       <c r="H11">
-        <v>93.0420148104632</v>
+        <v>271.737164</v>
       </c>
       <c r="I11">
-        <v>0.522585080298729</v>
+        <v>0.4644063565694702</v>
       </c>
       <c r="J11">
-        <v>0.522585080298729</v>
+        <v>0.4644063565694702</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.74658333644318</v>
+        <v>8.314158666666666</v>
       </c>
       <c r="N11">
-        <v>7.74658333644318</v>
+        <v>24.942476</v>
       </c>
       <c r="O11">
-        <v>0.07978995891306642</v>
+        <v>0.08379059397414486</v>
       </c>
       <c r="P11">
-        <v>0.07978995891306642</v>
+        <v>0.08379059397414489</v>
       </c>
       <c r="Q11">
-        <v>720.7577215198338</v>
+        <v>753.0886323753404</v>
       </c>
       <c r="R11">
-        <v>720.7577215198338</v>
+        <v>6777.797691378064</v>
       </c>
       <c r="S11">
-        <v>0.0416970420856171</v>
+        <v>0.03891288446232442</v>
       </c>
       <c r="T11">
-        <v>0.0416970420856171</v>
+        <v>0.03891288446232443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>104.0520413333333</v>
+      </c>
+      <c r="H12">
+        <v>312.156124</v>
+      </c>
+      <c r="I12">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="J12">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>17.79587766666667</v>
+      </c>
+      <c r="N12">
+        <v>53.38763299999999</v>
+      </c>
+      <c r="O12">
+        <v>0.1793479316144739</v>
+      </c>
+      <c r="P12">
+        <v>0.179347931614474</v>
+      </c>
+      <c r="Q12">
+        <v>1851.697398534943</v>
+      </c>
+      <c r="R12">
+        <v>16665.27658681449</v>
+      </c>
+      <c r="S12">
+        <v>0.0956791589073737</v>
+      </c>
+      <c r="T12">
+        <v>0.09567915890737373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>104.0520413333333</v>
+      </c>
+      <c r="H13">
+        <v>312.156124</v>
+      </c>
+      <c r="I13">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="J13">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>72.39518466666667</v>
+      </c>
+      <c r="N13">
+        <v>217.185554</v>
+      </c>
+      <c r="O13">
+        <v>0.7296030503252249</v>
+      </c>
+      <c r="P13">
+        <v>0.7296030503252251</v>
+      </c>
+      <c r="Q13">
+        <v>7532.866747270298</v>
+      </c>
+      <c r="R13">
+        <v>67795.80072543269</v>
+      </c>
+      <c r="S13">
+        <v>0.3892311751965477</v>
+      </c>
+      <c r="T13">
+        <v>0.3892311751965479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>104.0520413333333</v>
+      </c>
+      <c r="H14">
+        <v>312.156124</v>
+      </c>
+      <c r="I14">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="J14">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.257112</v>
+      </c>
+      <c r="N14">
+        <v>0.771336</v>
+      </c>
+      <c r="O14">
+        <v>0.00259119028895291</v>
+      </c>
+      <c r="P14">
+        <v>0.00259119028895291</v>
+      </c>
+      <c r="Q14">
+        <v>26.753028451296</v>
+      </c>
+      <c r="R14">
+        <v>240.777256061664</v>
+      </c>
+      <c r="S14">
+        <v>0.001382357215855178</v>
+      </c>
+      <c r="T14">
+        <v>0.001382357215855178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>104.0520413333333</v>
+      </c>
+      <c r="H15">
+        <v>312.156124</v>
+      </c>
+      <c r="I15">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="J15">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4631083333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.389325</v>
+      </c>
+      <c r="O15">
+        <v>0.004667233797203165</v>
+      </c>
+      <c r="P15">
+        <v>0.004667233797203166</v>
+      </c>
+      <c r="Q15">
+        <v>48.1873674418111</v>
+      </c>
+      <c r="R15">
+        <v>433.6863069762999</v>
+      </c>
+      <c r="S15">
+        <v>0.002489892133801605</v>
+      </c>
+      <c r="T15">
+        <v>0.002489892133801605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>104.0520413333333</v>
+      </c>
+      <c r="H16">
+        <v>312.156124</v>
+      </c>
+      <c r="I16">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="J16">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.314158666666666</v>
+      </c>
+      <c r="N16">
+        <v>24.942476</v>
+      </c>
+      <c r="O16">
+        <v>0.08379059397414486</v>
+      </c>
+      <c r="P16">
+        <v>0.08379059397414489</v>
+      </c>
+      <c r="Q16">
+        <v>865.1051812358913</v>
+      </c>
+      <c r="R16">
+        <v>7785.946631123024</v>
+      </c>
+      <c r="S16">
+        <v>0.04470089776685463</v>
+      </c>
+      <c r="T16">
+        <v>0.04470089776685465</v>
       </c>
     </row>
   </sheetData>
